--- a/TEMOA_Europe_Results/_8_Biorefineries feedstock.xlsx
+++ b/TEMOA_Europe_Results/_8_Biorefineries feedstock.xlsx
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1633.429311015488</v>
+        <v>1633.429311015489</v>
       </c>
       <c r="I2">
         <v>1751.8</v>
@@ -572,7 +572,7 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>6359.321550815135</v>
+        <v>6359.321550815136</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -587,10 +587,10 @@
         <v>35963.272</v>
       </c>
       <c r="I4">
-        <v>36842.08799999999</v>
+        <v>36842.088</v>
       </c>
       <c r="J4">
-        <v>37720.90399999999</v>
+        <v>37720.90399999998</v>
       </c>
       <c r="K4">
         <v>38433.048</v>
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>13.51258865819733</v>
+        <v>13.51258865819734</v>
       </c>
       <c r="H5">
-        <v>15.84004404505809</v>
+        <v>15.8400440450581</v>
       </c>
       <c r="I5">
         <v>16.22711906280125</v>
@@ -660,19 +660,19 @@
         <v>17.90417997211147</v>
       </c>
       <c r="H6">
-        <v>20.98805835970198</v>
+        <v>20.98805835970197</v>
       </c>
       <c r="I6">
-        <v>21.50093275821164</v>
+        <v>21.50093275821165</v>
       </c>
       <c r="J6">
-        <v>58.96253531061962</v>
+        <v>58.96253531061961</v>
       </c>
       <c r="K6">
-        <v>60.07570629258353</v>
+        <v>60.0757062925835</v>
       </c>
       <c r="L6">
-        <v>61.1888772745474</v>
+        <v>61.18887727454742</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -784,16 +784,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>90753.33252002053</v>
+        <v>90753.33252002054</v>
       </c>
       <c r="I2">
-        <v>97330.008</v>
+        <v>97330.00799999999</v>
       </c>
       <c r="J2">
-        <v>95902.11599999998</v>
+        <v>95902.11599999999</v>
       </c>
       <c r="K2">
-        <v>94279.76400000002</v>
+        <v>94279.76400000001</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>2546.333519516519</v>
+        <v>2546.33351951652</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>12284.17150745212</v>
+        <v>12284.17150745213</v>
       </c>
       <c r="H4">
         <v>14400.04004096191</v>
